--- a/Machine_Data_Database_WIP.xlsx
+++ b/Machine_Data_Database_WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/t_grunemann_skz_de/Documents/Dokumente/Repos/Grunemann/IOT midldeware selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{4DFA564B-2D88-42DE-AE8C-1AA70C91F240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{F490ED57-99BE-449E-8592-076B97F51523}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{4DFA564B-2D88-42DE-AE8C-1AA70C91F240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E5F5816-5614-438B-BFC9-0654660CC67E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00F86C9D-F011-4496-9100-71FF22588613}"/>
   </bookViews>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C726F063-264C-45D8-A840-60B68B2A387E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,18 +984,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,18 +1228,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBE1830-A95C-4D78-B768-D0C0F3A393F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{213FC62C-628C-45E6-BE0A-45DA540A5D9D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{213FC62C-628C-45E6-BE0A-45DA540A5D9D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBE1830-A95C-4D78-B768-D0C0F3A393F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Machine_Data_Database_WIP.xlsx
+++ b/Machine_Data_Database_WIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/t_grunemann_skz_de/Documents/Dokumente/Repos/Grunemann/IOT midldeware selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{4DFA564B-2D88-42DE-AE8C-1AA70C91F240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E5F5816-5614-438B-BFC9-0654660CC67E}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{4DFA564B-2D88-42DE-AE8C-1AA70C91F240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA130F0C-BA7C-49A6-84F4-BBEBFE02D45A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00F86C9D-F011-4496-9100-71FF22588613}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00F86C9D-F011-4496-9100-71FF22588613}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Cybus Connectware</t>
   </si>
@@ -77,43 +77,7 @@
     <t>https://www.osisoft.de/</t>
   </si>
   <si>
-    <t>Murano IOT</t>
-  </si>
-  <si>
-    <t>https://www.exosite.com/</t>
-  </si>
-  <si>
-    <t>kloudq</t>
-  </si>
-  <si>
-    <t>https://kloudq.com/</t>
-  </si>
-  <si>
-    <t>tulip</t>
-  </si>
-  <si>
-    <t>https://tulip.co/</t>
-  </si>
-  <si>
-    <t>QiO NAUTILIAN Platform</t>
-  </si>
-  <si>
-    <t>https://qio.ai/industries/manufacturing/</t>
-  </si>
-  <si>
-    <t>Davra IoT</t>
-  </si>
-  <si>
-    <t>https://davra.com/</t>
-  </si>
-  <si>
     <t>Full License and Service Contract</t>
-  </si>
-  <si>
-    <t>https://www.ge.com/digital/iiot-platform</t>
-  </si>
-  <si>
-    <t>Predix platform</t>
   </si>
   <si>
     <t>Kepware / PTC</t>
@@ -579,64 +543,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C726F063-264C-45D8-A840-60B68B2A387E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="89" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="55.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -645,24 +609,24 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="55.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -671,24 +635,24 @@
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -697,76 +661,76 @@
         <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="55.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -775,24 +739,24 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
@@ -801,76 +765,76 @@
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
@@ -879,123 +843,91 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
       <c r="H19" s="1"/>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G31" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{74B72D20-504C-4452-A8BA-94965E01D96C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,18 +1160,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{213FC62C-628C-45E6-BE0A-45DA540A5D9D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBE1830-A95C-4D78-B768-D0C0F3A393F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBE1830-A95C-4D78-B768-D0C0F3A393F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{213FC62C-628C-45E6-BE0A-45DA540A5D9D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
